--- a/public/laptop-sample-upload.xlsx
+++ b/public/laptop-sample-upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linh/staff-portal-web/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9083702F-34F5-0A46-857E-09643A557A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D9610B-C741-1545-B633-652B0551DBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{BA0EB9C3-12C4-9C45-9C5E-DF8F105EEFE8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Laptop A</t>
   </si>
@@ -114,13 +114,19 @@
   </si>
   <si>
     <t>Nguyễn Hải Linh</t>
+  </si>
+  <si>
+    <t>Tên Phòng (Room Name)</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,6 +161,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -176,11 +188,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAED9B37-DC91-F646-B2F5-9F1FFDAF461F}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -529,12 +542,12 @@
     <col min="5" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" customWidth="1"/>
-    <col min="11" max="11" width="30.5" customWidth="1"/>
+    <col min="9" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="12" max="12" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -562,14 +575,17 @@
       <c r="I1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,14 +613,17 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,14 +651,17 @@
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,14 +689,17 @@
       <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,14 +727,17 @@
       <c r="I5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -719,6 +747,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/public/laptop-sample-upload.xlsx
+++ b/public/laptop-sample-upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linh/staff-portal-web/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D9610B-C741-1545-B633-652B0551DBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD5DFD9-6B01-4742-9CC3-442FBE514309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{BA0EB9C3-12C4-9C45-9C5E-DF8F105EEFE8}"/>
   </bookViews>
@@ -71,12 +71,6 @@
     <t>Nhà Sản Xuất (manufacturer)</t>
   </si>
   <si>
-    <t>Tên Thiết Bị (name)</t>
-  </si>
-  <si>
-    <t>Serial (serial)</t>
-  </si>
-  <si>
     <t>Trạng Thái (status)</t>
   </si>
   <si>
@@ -120,6 +114,12 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Tên Thiết Bị (name) *</t>
+  </si>
+  <si>
+    <t>Serial (serial) *</t>
   </si>
 </sst>
 </file>
@@ -531,58 +531,59 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="10" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="25.5" customWidth="1"/>
     <col min="11" max="11" width="22.1640625" customWidth="1"/>
     <col min="12" max="12" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
-      </c>
       <c r="L1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -593,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1">
         <v>1234566</v>
@@ -614,10 +615,10 @@
         <v>6</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L2" s="3">
         <v>2023</v>
@@ -631,13 +632,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1">
         <v>1234567</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -652,10 +653,10 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L3" s="3">
         <v>2023</v>
@@ -669,13 +670,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>1234568</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -690,10 +691,10 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L4" s="3">
         <v>2023</v>
@@ -707,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>1234569</v>
@@ -728,10 +729,10 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L5" s="3">
         <v>2023</v>

--- a/public/laptop-sample-upload.xlsx
+++ b/public/laptop-sample-upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linh/staff-portal-web/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD5DFD9-6B01-4742-9CC3-442FBE514309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFB90D0-F47F-F64F-B484-702A0654A5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{BA0EB9C3-12C4-9C45-9C5E-DF8F105EEFE8}"/>
   </bookViews>
@@ -116,10 +116,10 @@
     <t>Test</t>
   </si>
   <si>
-    <t>Tên Thiết Bị (name) *</t>
-  </si>
-  <si>
-    <t>Serial (serial) *</t>
+    <t>Tên Thiết Bị (name)</t>
+  </si>
+  <si>
+    <t>Serial (serial)</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
